--- a/house/20140216 Porch and Master Bath/Contractors/Contractors.xlsx
+++ b/house/20140216 Porch and Master Bath/Contractors/Contractors.xlsx
@@ -482,12 +482,16 @@
   </si>
   <si>
     <t>10/6: Contacted. VM. Sent a text.
-10/16: After other attempts to make contact I learned that I had an old phone number. Raj called and handed Merrick the phone.10/19: Established contact by phone. Sent plans and arranged site visit for Wednesday 10/21 10am.</t>
+10/16: After other attempts to make contact I learned that I had an old phone number. Raj called and handed Merrick the phone.10/19: Established contact by phone. Sent plans and arranged site visit for Wednesday 10/21 10am.
+10/21: Site visit went ok. I believe we agreed he would send an estimate.
+11/6: Haven't heard from Merrick since the site visit. Asked for an estimate.</t>
   </si>
   <si>
     <t>10/6: Established contact by phone and email. Arranged site visit for Friday
 10/16 afternoon.
-10/16: Site visit went well. I loaned Martin the drawings. He will return on Monday. He warned that we will have to pay for a bigger line from the street to the house for 4.5 baths. He is working on a bid.</t>
+10/16: Site visit went well. I loaned Martin the drawings. He will return on Monday. He warned that we will have to pay for a bigger line from the street to the house for 4.5 baths. He is working on a bid.
+10/21: Drawings returned.
+11/6: I haven't heard from Martin. I emailed him asking for an estimate, including a seasonal maintenance visit and the cost and impact (stone retaining wall and walk) related to a new 3-inch service line.</t>
   </si>
 </sst>
 </file>
@@ -1358,10 +1362,10 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1522,7 +1526,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>126</v>
       </c>
@@ -1548,7 +1552,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>140</v>
       </c>

--- a/house/20140216 Porch and Master Bath/Contractors/Contractors.xlsx
+++ b/house/20140216 Porch and Master Bath/Contractors/Contractors.xlsx
@@ -481,17 +481,18 @@
     <t>m: 301-793-3127</t>
   </si>
   <si>
-    <t>10/6: Contacted. VM. Sent a text.
-10/16: After other attempts to make contact I learned that I had an old phone number. Raj called and handed Merrick the phone.10/19: Established contact by phone. Sent plans and arranged site visit for Wednesday 10/21 10am.
-10/21: Site visit went ok. I believe we agreed he would send an estimate.
-11/6: Haven't heard from Merrick since the site visit. Asked for an estimate.</t>
-  </si>
-  <si>
     <t>10/6: Established contact by phone and email. Arranged site visit for Friday
 10/16 afternoon.
 10/16: Site visit went well. I loaned Martin the drawings. He will return on Monday. He warned that we will have to pay for a bigger line from the street to the house for 4.5 baths. He is working on a bid.
 10/21: Drawings returned.
 11/6: I haven't heard from Martin. I emailed him asking for an estimate, including a seasonal maintenance visit and the cost and impact (stone retaining wall and walk) related to a new 3-inch service line.</t>
+  </si>
+  <si>
+    <t>10/6: Contacted. VM. Sent a text.
+10/16: After other attempts to make contact I learned that I had an old phone number. Raj called and handed Merrick the phone.10/19: Established contact by phone. Sent plans and arranged site visit for Wednesday 10/21 10am.
+10/21: Site visit went ok. I believe we agreed he would send an estimate.
+11/6: Haven't heard from Merrick since the site visit. Asked for an estimate.
+11/11: Sent another ping asking for the estimate. Merrick responded same day saying he would send estimate to me by the end of the week.</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1366,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,13 +1547,13 @@
         <v>131</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>140</v>
       </c>
@@ -1572,7 +1573,7 @@
         <v>144</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>102</v>

--- a/house/20140216 Porch and Master Bath/Contractors/Contractors.xlsx
+++ b/house/20140216 Porch and Master Bath/Contractors/Contractors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="GC" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="151">
   <si>
     <t>Apergis</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>Oscar</t>
-  </si>
-  <si>
-    <t>301-937-5227</t>
   </si>
   <si>
     <t>Recommended by Ahmann</t>
@@ -335,6 +332,174 @@
   </si>
   <si>
     <t>Plumbing, Heating and Cooling</t>
+  </si>
+  <si>
+    <t>7/16/2015: called and sent info by email
+8/24/2015: received bid. $329K. I asked for water-tight bid.
+8/27/2015: phone call from Jack, water-tight bid is $192K
+9/1/2015: Jack called and I told him I was going with a different contractor.</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>9/16/2015: I called, described the project, and asked if interested in bidding on project. He said yes. I emailed details of bid request.</t>
+  </si>
+  <si>
+    <t>m: 202-355-4577
+?: 703-501-8278
+h: 240-888-2741</t>
+  </si>
+  <si>
+    <t>9/16/2015: I left a message asking if interested in bidding on project
+9/21/2015: We talked about the project and we planned a site visit for 9/25
+9/25/2015: Jony never showed up and never contacted to explain or appologize.</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>tjkelly858@comcast.net</t>
+  </si>
+  <si>
+    <t>m: 202-907-3292
+w: 202-246-9380</t>
+  </si>
+  <si>
+    <t>Jimmy Gusky LLC</t>
+  </si>
+  <si>
+    <t>1250 Taylor St NW, Washington DC</t>
+  </si>
+  <si>
+    <t>411 Green Pasture Dr., Rockville MD</t>
+  </si>
+  <si>
+    <t>Duck</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>m: 240-672-4611</t>
+  </si>
+  <si>
+    <t>Frank Cooper-Berthe</t>
+  </si>
+  <si>
+    <t>HVAC</t>
+  </si>
+  <si>
+    <t>m: 202-246-9380</t>
+  </si>
+  <si>
+    <t>javier@duckhvac.com</t>
+  </si>
+  <si>
+    <t>9/21/2015: After I called Jimmy Gusky to see what's up, Tom Kelly emailed to say he would call the next day. He explained that he had been out of town. We arranged for a site visit on 9/25.
+9/25/2015: He came and he said he would get back to me 9/28
+9/30: Tom sent an email saying they would not be able to submit a bid. I asked if it was because of the Energy Verification Sheet. I said I would welcome a bid without that in the scope of work.</t>
+  </si>
+  <si>
+    <t>9/29/15: Contacted. Interested. Am forwarding plans. Scheduled a site visit for 10/2, 8:30-9:30
+10/2: He called at 9:15 saying he would be late. Then he called asking if he could visit after he submits his bid. I asked about the EVS, and he said he was working on it.</t>
+  </si>
+  <si>
+    <t>Ramos</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Ramos Plumbing &amp; Handyman Service</t>
+  </si>
+  <si>
+    <t>Plumbing and Handyman Services</t>
+  </si>
+  <si>
+    <t>MartinRamos57@gmail.com</t>
+  </si>
+  <si>
+    <t>m: 301-768-3922
+w: 301-605-7606</t>
+  </si>
+  <si>
+    <t>Bell Electric</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Otto</t>
+  </si>
+  <si>
+    <t>JPN Masonry LLC</t>
+  </si>
+  <si>
+    <t>Masonry</t>
+  </si>
+  <si>
+    <t>omadrid@jpnmasonry.com</t>
+  </si>
+  <si>
+    <t>w: 202-640-2650
+m: 202-603-6072</t>
+  </si>
+  <si>
+    <t>2607 24th St NW Suite #2
+Washington DC 20008</t>
+  </si>
+  <si>
+    <t>Campbell</t>
+  </si>
+  <si>
+    <t>Merrick</t>
+  </si>
+  <si>
+    <t>Electrical</t>
+  </si>
+  <si>
+    <t>m: 301-793-3127</t>
+  </si>
+  <si>
+    <t>10/6: Established contact by phone and email. Arranged site visit for Friday
+10/16 afternoon.
+10/16: Site visit went well. I loaned Martin the drawings. He will return on Monday. He warned that we will have to pay for a bigger line from the street to the house for 4.5 baths. He is working on a bid.
+10/21: Drawings returned.
+11/6: I haven't heard from Martin. I emailed him asking for an estimate, including a seasonal maintenance visit and the cost and impact (stone retaining wall and walk) related to a new 3-inch service line.
+11/28: Asked for esimate again</t>
+  </si>
+  <si>
+    <t>10/6: Contacted. VM. Sent a text.
+10/16: After other attempts to make contact I learned that I had an old phone number. Raj called and handed Merrick the phone.10/19: Established contact by phone. Sent plans and arranged site visit for Wednesday 10/21 10am.
+10/21: Site visit went ok. I believe we agreed he would send an estimate.
+11/6: Haven't heard from Merrick since the site visit. Asked for an estimate.
+11/11: Sent another ping asking for the estimate. Merrick responded same day saying he would send estimate to me by the end of the week.
+11/28: Asked for estimate again
+11/30: Received estimate. $26,800</t>
+  </si>
+  <si>
+    <t>merrickbes@gmail.com
+bellelectricalservice@gmail.com</t>
+  </si>
+  <si>
+    <t>301-937-5227
+?: 301-440-1796</t>
+  </si>
+  <si>
+    <t>Mondy</t>
+  </si>
+  <si>
+    <t>Klaudia</t>
+  </si>
+  <si>
+    <t>k.mondy@omfcontractors.com</t>
+  </si>
+  <si>
+    <t>w: 301-937-5227</t>
   </si>
   <si>
     <t>6/29/2015: talked to secretary and sent info by email
@@ -344,155 +509,11 @@
 7/21/2015: Oscar update, working with subcontractors on pricing. I will have it by the end of the week.
 7/27/2015: Bid received $275K. I told him that I was having delays and would get back to him when financing and permits were ready.
 9/1/2015: We met and went over some details of the project. I asked for a water-tight bid. Oscar asked to meet again.
-9/8/15: Reminder about water-tight bid. Request meeting.</t>
-  </si>
-  <si>
-    <t>7/16/2015: called and sent info by email
-8/24/2015: received bid. $329K. I asked for water-tight bid.
-8/27/2015: phone call from Jack, water-tight bid is $192K
-9/1/2015: Jack called and I told him I was going with a different contractor.</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>9/16/2015: I called, described the project, and asked if interested in bidding on project. He said yes. I emailed details of bid request.</t>
-  </si>
-  <si>
-    <t>m: 202-355-4577
-?: 703-501-8278
-h: 240-888-2741</t>
-  </si>
-  <si>
-    <t>9/16/2015: I left a message asking if interested in bidding on project
-9/21/2015: We talked about the project and we planned a site visit for 9/25
-9/25/2015: Jony never showed up and never contacted to explain or appologize.</t>
-  </si>
-  <si>
-    <t>Kelly</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>tjkelly858@comcast.net</t>
-  </si>
-  <si>
-    <t>m: 202-907-3292
-w: 202-246-9380</t>
-  </si>
-  <si>
-    <t>Jimmy Gusky LLC</t>
-  </si>
-  <si>
-    <t>1250 Taylor St NW, Washington DC</t>
-  </si>
-  <si>
-    <t>411 Green Pasture Dr., Rockville MD</t>
-  </si>
-  <si>
-    <t>Duck</t>
-  </si>
-  <si>
-    <t>Javier</t>
-  </si>
-  <si>
-    <t>m: 240-672-4611</t>
-  </si>
-  <si>
-    <t>Frank Cooper-Berthe</t>
-  </si>
-  <si>
-    <t>HVAC</t>
-  </si>
-  <si>
-    <t>m: 202-246-9380</t>
-  </si>
-  <si>
-    <t>javier@duckhvac.com</t>
-  </si>
-  <si>
-    <t>9/21/2015: After I called Jimmy Gusky to see what's up, Tom Kelly emailed to say he would call the next day. He explained that he had been out of town. We arranged for a site visit on 9/25.
-9/25/2015: He came and he said he would get back to me 9/28
-9/30: Tom sent an email saying they would not be able to submit a bid. I asked if it was because of the Energy Verification Sheet. I said I would welcome a bid without that in the scope of work.</t>
-  </si>
-  <si>
-    <t>9/29/15: Contacted. Interested. Am forwarding plans. Scheduled a site visit for 10/2, 8:30-9:30
-10/2: He called at 9:15 saying he would be late. Then he called asking if he could visit after he submits his bid. I asked about the EVS, and he said he was working on it.</t>
-  </si>
-  <si>
-    <t>Ramos</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Ramos Plumbing &amp; Handyman Service</t>
-  </si>
-  <si>
-    <t>Plumbing and Handyman Services</t>
-  </si>
-  <si>
-    <t>MartinRamos57@gmail.com</t>
-  </si>
-  <si>
-    <t>m: 301-768-3922
-w: 301-605-7606</t>
-  </si>
-  <si>
-    <t>Bell Electric</t>
-  </si>
-  <si>
-    <t>Madrid</t>
-  </si>
-  <si>
-    <t>Otto</t>
-  </si>
-  <si>
-    <t>JPN Masonry LLC</t>
-  </si>
-  <si>
-    <t>Masonry</t>
-  </si>
-  <si>
-    <t>omadrid@jpnmasonry.com</t>
-  </si>
-  <si>
-    <t>w: 202-640-2650
-m: 202-603-6072</t>
-  </si>
-  <si>
-    <t>2607 24th St NW Suite #2
-Washington DC 20008</t>
-  </si>
-  <si>
-    <t>Campbell</t>
-  </si>
-  <si>
-    <t>Merrick</t>
-  </si>
-  <si>
-    <t>Electrical</t>
-  </si>
-  <si>
-    <t>merrickbes@gmail.com</t>
-  </si>
-  <si>
-    <t>m: 301-793-3127</t>
-  </si>
-  <si>
-    <t>10/6: Established contact by phone and email. Arranged site visit for Friday
-10/16 afternoon.
-10/16: Site visit went well. I loaned Martin the drawings. He will return on Monday. He warned that we will have to pay for a bigger line from the street to the house for 4.5 baths. He is working on a bid.
-10/21: Drawings returned.
-11/6: I haven't heard from Martin. I emailed him asking for an estimate, including a seasonal maintenance visit and the cost and impact (stone retaining wall and walk) related to a new 3-inch service line.</t>
-  </si>
-  <si>
-    <t>10/6: Contacted. VM. Sent a text.
-10/16: After other attempts to make contact I learned that I had an old phone number. Raj called and handed Merrick the phone.10/19: Established contact by phone. Sent plans and arranged site visit for Wednesday 10/21 10am.
-10/21: Site visit went ok. I believe we agreed he would send an estimate.
-11/6: Haven't heard from Merrick since the site visit. Asked for an estimate.
-11/11: Sent another ping asking for the estimate. Merrick responded same day saying he would send estimate to me by the end of the week.</t>
+9/8/15: Reminder about water-tight bid. Request meeting.
+10/6/15: Provided the draft agreement and scope of work. Flores acknowledged receipt.
+10/16/15: After several attempts to call, finally talked to Oscar. He is not available to start until Mid-December. He has not provided feedback because he is waiting for us to have the permit in hand. He is generally happy with agreement.
+11/21/15: Contacted Oscar. Permit in hand. Asked for comments on agreement, schedule of values and construction schedule, and pour the foundation before ground freezes.
+11/24/15: Provided response regarding agreement.</t>
   </si>
 </sst>
 </file>
@@ -555,7 +576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -585,6 +606,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -889,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
@@ -900,14 +924,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="14.28515625" customWidth="1"/>
+    <col min="1" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
     <col min="8" max="8" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -916,40 +941,40 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>72</v>
       </c>
-      <c r="I1" t="s">
-        <v>73</v>
-      </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="105" x14ac:dyDescent="0.25">
@@ -963,13 +988,13 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -978,13 +1003,13 @@
         <v>18</v>
       </c>
       <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" t="s">
         <v>62</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>63</v>
-      </c>
-      <c r="L2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -998,37 +1023,37 @@
         <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
       <c r="M3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -1036,43 +1061,43 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>45</v>
-      </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" t="s">
         <v>54</v>
-      </c>
-      <c r="N4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1092,31 +1117,31 @@
         <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" t="s">
         <v>66</v>
       </c>
-      <c r="L5" t="s">
-        <v>67</v>
-      </c>
       <c r="M5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1136,31 +1161,31 @@
         <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1177,28 +1202,28 @@
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
         <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1215,7 +1240,7 @@
         <v>32</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -1224,28 +1249,28 @@
         <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
         <v>46</v>
       </c>
-      <c r="K8" t="s">
-        <v>47</v>
-      </c>
       <c r="L8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" t="s">
         <v>49</v>
       </c>
-      <c r="M8" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>50</v>
       </c>
-      <c r="O8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="315" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1256,88 +1281,103 @@
         <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>38</v>
       </c>
-      <c r="H9" t="s">
-        <v>39</v>
-      </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>2</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>146</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>28</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="58.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
+    <row r="13" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
         <v>82</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E13" t="s">
         <v>84</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F13" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H13" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1351,10 +1391,11 @@
     <hyperlink ref="D4" r:id="rId4"/>
     <hyperlink ref="D2" r:id="rId5"/>
     <hyperlink ref="D3" r:id="rId6"/>
-    <hyperlink ref="D12" r:id="rId7"/>
+    <hyperlink ref="D13" r:id="rId7"/>
+    <hyperlink ref="D10" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1362,11 +1403,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,219 +1431,219 @@
         <v>7</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="J2" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="I3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="F4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="I4" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="G5" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="12" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="240" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="G6" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="240" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="E7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>146</v>
-      </c>
       <c r="I7" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="I8" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1613,7 +1654,7 @@
     <hyperlink ref="E5" r:id="rId4"/>
     <hyperlink ref="E6" r:id="rId5"/>
     <hyperlink ref="E8" r:id="rId6"/>
-    <hyperlink ref="E7" r:id="rId7"/>
+    <hyperlink ref="E7" r:id="rId7" display="merrickbes@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId8"/>

--- a/house/20140216 Porch and Master Bath/Contractors/Contractors.xlsx
+++ b/house/20140216 Porch and Master Bath/Contractors/Contractors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GC" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="191">
   <si>
     <t>Apergis</t>
   </si>
@@ -514,6 +514,129 @@
 10/16/15: After several attempts to call, finally talked to Oscar. He is not available to start until Mid-December. He has not provided feedback because he is waiting for us to have the permit in hand. He is generally happy with agreement.
 11/21/15: Contacted Oscar. Permit in hand. Asked for comments on agreement, schedule of values and construction schedule, and pour the foundation before ground freezes.
 11/24/15: Provided response regarding agreement.</t>
+  </si>
+  <si>
+    <t>Wilcox Electric</t>
+  </si>
+  <si>
+    <t>w: 202-546-1010</t>
+  </si>
+  <si>
+    <t>Aspen Hill Plumbing</t>
+  </si>
+  <si>
+    <t>Plumbing</t>
+  </si>
+  <si>
+    <t>info@aspenhillplumbing.com</t>
+  </si>
+  <si>
+    <t>w: 301-933-0801</t>
+  </si>
+  <si>
+    <t>12/5: Called late, no answer. Sent email describing project and including plans. Invited for a visit and to submit a bid.</t>
+  </si>
+  <si>
+    <t>12/5: Contacted via Wilcox business website. Briefly described project and asked for a bid.</t>
+  </si>
+  <si>
+    <t>Stevens Co.</t>
+  </si>
+  <si>
+    <t>Plumbing and Heating</t>
+  </si>
+  <si>
+    <t>richard.stevensplumbing@gmail.com</t>
+  </si>
+  <si>
+    <t>1351 Quincy St NW
+Washington DC 20011</t>
+  </si>
+  <si>
+    <t>Petworth Listserve + Angie's list</t>
+  </si>
+  <si>
+    <t>Angie's list</t>
+  </si>
+  <si>
+    <t>2238 Distribution Cir
+Silver Spring MD 20910</t>
+  </si>
+  <si>
+    <t>5602 Tuxedo Rd
+HYATTSVILLE MD 20781</t>
+  </si>
+  <si>
+    <t>Silverman</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Silco Electric</t>
+  </si>
+  <si>
+    <t>w: 301-466-1128</t>
+  </si>
+  <si>
+    <t>adam@silcoelectric.com</t>
+  </si>
+  <si>
+    <t>12/5: Contacted by email. Briefly described project and asked for a bid.</t>
+  </si>
+  <si>
+    <t>Swann</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>RSS Plumbing Solutions</t>
+  </si>
+  <si>
+    <t>HVAC &amp; plumbing</t>
+  </si>
+  <si>
+    <t>rssplumbingsolutions@gmail.com</t>
+  </si>
+  <si>
+    <t>m: 240-882-5330</t>
+  </si>
+  <si>
+    <t>w: 202-882-4500</t>
+  </si>
+  <si>
+    <t>Petworth Listserve</t>
+  </si>
+  <si>
+    <t>Argent Heating &amp; Cooling</t>
+  </si>
+  <si>
+    <t>w: 703-281-6300</t>
+  </si>
+  <si>
+    <t>12/5: Called late. I briefly described the project to a receptionist. They took my number and said they would call back.</t>
+  </si>
+  <si>
+    <t>Chambers</t>
+  </si>
+  <si>
+    <t>Marlon</t>
+  </si>
+  <si>
+    <t>Climate Control Systems</t>
+  </si>
+  <si>
+    <t>R&amp;B Incorporated</t>
+  </si>
+  <si>
+    <t>sales@rbincorporated.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w: 703-683-1996 </t>
+  </si>
+  <si>
+    <t>w: 301-937-8292</t>
   </si>
 </sst>
 </file>
@@ -576,7 +699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -609,6 +732,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -915,7 +1041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1329,7 +1455,7 @@
       </c>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1343,7 +1469,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1401,13 +1527,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,55 +1720,223 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="270" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G13" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1653,11 +1947,16 @@
     <hyperlink ref="E4" r:id="rId3"/>
     <hyperlink ref="E5" r:id="rId4"/>
     <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E8" r:id="rId6"/>
-    <hyperlink ref="E7" r:id="rId7" display="merrickbes@gmail.com"/>
+    <hyperlink ref="E16" r:id="rId6"/>
+    <hyperlink ref="E13" r:id="rId7" display="merrickbes@gmail.com"/>
+    <hyperlink ref="E8" r:id="rId8"/>
+    <hyperlink ref="E7" r:id="rId9"/>
+    <hyperlink ref="E15" r:id="rId10"/>
+    <hyperlink ref="E9" r:id="rId11"/>
+    <hyperlink ref="E11" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId8"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/house/20140216 Porch and Master Bath/Contractors/Contractors.xlsx
+++ b/house/20140216 Porch and Master Bath/Contractors/Contractors.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="209">
   <si>
     <t>Apergis</t>
   </si>
@@ -534,12 +534,6 @@
     <t>w: 301-933-0801</t>
   </si>
   <si>
-    <t>12/5: Called late, no answer. Sent email describing project and including plans. Invited for a visit and to submit a bid.</t>
-  </si>
-  <si>
-    <t>12/5: Contacted via Wilcox business website. Briefly described project and asked for a bid.</t>
-  </si>
-  <si>
     <t>Stevens Co.</t>
   </si>
   <si>
@@ -556,9 +550,6 @@
     <t>Petworth Listserve + Angie's list</t>
   </si>
   <si>
-    <t>Angie's list</t>
-  </si>
-  <si>
     <t>2238 Distribution Cir
 Silver Spring MD 20910</t>
   </si>
@@ -582,9 +573,6 @@
     <t>adam@silcoelectric.com</t>
   </si>
   <si>
-    <t>12/5: Contacted by email. Briefly described project and asked for a bid.</t>
-  </si>
-  <si>
     <t>Swann</t>
   </si>
   <si>
@@ -615,9 +603,6 @@
     <t>w: 703-281-6300</t>
   </si>
   <si>
-    <t>12/5: Called late. I briefly described the project to a receptionist. They took my number and said they would call back.</t>
-  </si>
-  <si>
     <t>Chambers</t>
   </si>
   <si>
@@ -637,6 +622,87 @@
   </si>
   <si>
     <t>w: 301-937-8292</t>
+  </si>
+  <si>
+    <t>Glick</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
+    <t>Petworth Listserve + Angie's list (A; 110 reviews)</t>
+  </si>
+  <si>
+    <t>12/5: Contacted by email. Briefly described project and asked for a bid.
+12/5: Declined. Too busy.</t>
+  </si>
+  <si>
+    <t>12/5: Contacted via Wilcox business website. Briefly described project and asked for a bid.
+12/7: Called and set up a site visit for Dec 28 between 11:30 and 12:30.</t>
+  </si>
+  <si>
+    <t>Angie's list (A; 294 reviews)</t>
+  </si>
+  <si>
+    <t>Petworth Listserve Angie's list (A; 62 reviews)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1710 Mt Vernon Ave
+Alexandria VA 22301 </t>
+  </si>
+  <si>
+    <t>501 Church Street NESuite 306
+Vienna VA 22180</t>
+  </si>
+  <si>
+    <t>Petworth Listserve Angie's list (A; 212 reviews)</t>
+  </si>
+  <si>
+    <t>12/5: Called late. I briefly described the project to a receptionist. They took my number and said they would call back next week.</t>
+  </si>
+  <si>
+    <t>12/5: Called late, spoke briefly on the phone. Heard children. Sent text. Sent email describing project and including plans. Invited for a visit and to submit a bid.</t>
+  </si>
+  <si>
+    <t>Petworth Listserve + Angie's list (A; 100 reviews)</t>
+  </si>
+  <si>
+    <t>12/5: Called late, no answer. Sent email describing project and including plans. Invited for a visit and to submit a bid.
+12/7: Called. Declined. Too busy.</t>
+  </si>
+  <si>
+    <t>12/5:  Called late, no answer. Sent email describing project and including plans. Invited for a visit.
+12/7: Called. Receptionist took my name and contact. Rob called me back. We made an appointment for Thursday Dec 10 at 8am</t>
+  </si>
+  <si>
+    <t>12/5: Called late, no answer. Sent email describing project and including plans. Invited for a visit and to submit a bid.
+12/7: Dave Glick (owner) responded. Offered to come Monday 2-4pm or Tuesday 7-8am. I accepted Monday 2pm.
+12/8: Dave confirmed. He will call with 30 min ETA.</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Allied Service Co</t>
+  </si>
+  <si>
+    <t>Gable</t>
+  </si>
+  <si>
+    <t>shawnmullan@yahoo.com</t>
+  </si>
+  <si>
+    <t>600 Gallatin St NW
+Washington DC 20011</t>
+  </si>
+  <si>
+    <t>w: 202-291-1000
+m: 410-963-5365</t>
+  </si>
+  <si>
+    <t>12/9: Called. Priced the disconnect of 2 AC units at $500. Arranged the job for Friday at 10am. We will discuss rest of project.
+12/10: Shawn Mullan called asked if he could come early, 9am.
+12/11: Shawn arrived 10 minutes early and completed disconnect in 1 hour. Started to discuss rest of project and he said I should talk to his father-in-law Bob, furnace expert. Sent drawings and rfp.</t>
   </si>
 </sst>
 </file>
@@ -660,7 +726,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -681,7 +747,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,7 +777,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -728,13 +806,19 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1453,7 +1537,7 @@
       <c r="E10" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1527,13 +1611,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,7 +1716,7 @@
       <c r="F3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="15" t="s">
         <v>122</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -1687,7 +1771,7 @@
       <c r="F5" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="15" t="s">
         <v>123</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -1720,30 +1804,36 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="F7" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="I7" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="C8" s="5" t="s">
         <v>153</v>
       </c>
@@ -1757,186 +1847,226 @@
         <v>156</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="G9" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="7" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="C10" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>119</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>119</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:10" ht="270" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="C14" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="F14" s="5" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>168</v>
-      </c>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>171</v>
-      </c>
+      <c r="E15" s="7"/>
       <c r="F15" s="5" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>172</v>
+        <v>190</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1947,11 +2077,11 @@
     <hyperlink ref="E4" r:id="rId3"/>
     <hyperlink ref="E5" r:id="rId4"/>
     <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E16" r:id="rId6"/>
-    <hyperlink ref="E13" r:id="rId7" display="merrickbes@gmail.com"/>
+    <hyperlink ref="E17" r:id="rId6"/>
+    <hyperlink ref="E14" r:id="rId7" display="merrickbes@gmail.com"/>
     <hyperlink ref="E8" r:id="rId8"/>
     <hyperlink ref="E7" r:id="rId9"/>
-    <hyperlink ref="E15" r:id="rId10"/>
+    <hyperlink ref="E16" r:id="rId10"/>
     <hyperlink ref="E9" r:id="rId11"/>
     <hyperlink ref="E11" r:id="rId12"/>
   </hyperlinks>

--- a/house/20140216 Porch and Master Bath/Contractors/Contractors.xlsx
+++ b/house/20140216 Porch and Master Bath/Contractors/Contractors.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="212">
   <si>
     <t>Apergis</t>
   </si>
@@ -615,12 +615,6 @@
     <t>R&amp;B Incorporated</t>
   </si>
   <si>
-    <t>sales@rbincorporated.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w: 703-683-1996 </t>
-  </si>
-  <si>
     <t>w: 301-937-8292</t>
   </si>
   <si>
@@ -703,6 +697,27 @@
     <t>12/9: Called. Priced the disconnect of 2 AC units at $500. Arranged the job for Friday at 10am. We will discuss rest of project.
 12/10: Shawn Mullan called asked if he could come early, 9am.
 12/11: Shawn arrived 10 minutes early and completed disconnect in 1 hour. Started to discuss rest of project and he said I should talk to his father-in-law Bob, furnace expert. Sent drawings and rfp.</t>
+  </si>
+  <si>
+    <t>Snyder</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>w: 703-683-1996 
+m: 571-238-9099</t>
+  </si>
+  <si>
+    <t>sales@rbincorporated.com
+dave@rbincorporated.com</t>
+  </si>
+  <si>
+    <t>A/C &amp; Heating
+Sheet Metal
+UNICO
+Parts
+Duct Cleaning</t>
   </si>
 </sst>
 </file>
@@ -1614,10 +1629,10 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,21 +1833,21 @@
         <v>175</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>160</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>153</v>
@@ -1847,13 +1862,13 @@
         <v>156</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>162</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1876,7 +1891,7 @@
         <v>174</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>176</v>
@@ -1894,62 +1909,68 @@
         <v>178</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="C11" s="5" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>119</v>
+        <v>211</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>101</v>
@@ -1967,7 +1988,7 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G13" s="13"/>
     </row>
@@ -2009,13 +2030,13 @@
         <v>152</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>163</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2038,7 +2059,7 @@
         <v>167</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>161</v>
@@ -2083,7 +2104,7 @@
     <hyperlink ref="E7" r:id="rId9"/>
     <hyperlink ref="E16" r:id="rId10"/>
     <hyperlink ref="E9" r:id="rId11"/>
-    <hyperlink ref="E11" r:id="rId12"/>
+    <hyperlink ref="E11" r:id="rId12" display="sales@rbincorporated.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId13"/>

--- a/house/20140216 Porch and Master Bath/Contractors/Contractors.xlsx
+++ b/house/20140216 Porch and Master Bath/Contractors/Contractors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GC" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="215">
   <si>
     <t>Apergis</t>
   </si>
@@ -531,9 +531,6 @@
     <t>info@aspenhillplumbing.com</t>
   </si>
   <si>
-    <t>w: 301-933-0801</t>
-  </si>
-  <si>
     <t>Stevens Co.</t>
   </si>
   <si>
@@ -665,15 +662,6 @@
 12/7: Called. Declined. Too busy.</t>
   </si>
   <si>
-    <t>12/5:  Called late, no answer. Sent email describing project and including plans. Invited for a visit.
-12/7: Called. Receptionist took my name and contact. Rob called me back. We made an appointment for Thursday Dec 10 at 8am</t>
-  </si>
-  <si>
-    <t>12/5: Called late, no answer. Sent email describing project and including plans. Invited for a visit and to submit a bid.
-12/7: Dave Glick (owner) responded. Offered to come Monday 2-4pm or Tuesday 7-8am. I accepted Monday 2pm.
-12/8: Dave confirmed. He will call with 30 min ETA.</t>
-  </si>
-  <si>
     <t>Bob</t>
   </si>
   <si>
@@ -688,15 +676,6 @@
   <si>
     <t>600 Gallatin St NW
 Washington DC 20011</t>
-  </si>
-  <si>
-    <t>w: 202-291-1000
-m: 410-963-5365</t>
-  </si>
-  <si>
-    <t>12/9: Called. Priced the disconnect of 2 AC units at $500. Arranged the job for Friday at 10am. We will discuss rest of project.
-12/10: Shawn Mullan called asked if he could come early, 9am.
-12/11: Shawn arrived 10 minutes early and completed disconnect in 1 hour. Started to discuss rest of project and he said I should talk to his father-in-law Bob, furnace expert. Sent drawings and rfp.</t>
   </si>
   <si>
     <t>Snyder</t>
@@ -718,6 +697,39 @@
 UNICO
 Parts
 Duct Cleaning</t>
+  </si>
+  <si>
+    <t>12/5:  Called late, no answer. Sent email describing project and including plans. Invited for a visit.
+12/7: Called. Receptionist took my name and contact. Rob called me back. We made an appointment for Thursday Dec 10 at 8am
+12/10: Site visit went well. Talked a good game. Will send an estimate.</t>
+  </si>
+  <si>
+    <t>Mullan</t>
+  </si>
+  <si>
+    <t>Shawn</t>
+  </si>
+  <si>
+    <t>m: 410-963-5365</t>
+  </si>
+  <si>
+    <t>w: 202-291-1000</t>
+  </si>
+  <si>
+    <t>w: 301-933-0801
+m: 240-644-4673</t>
+  </si>
+  <si>
+    <t>12/9: Called. Priced the disconnect of 2 AC units at $500. Arranged the job for Friday at 10am. We will discuss rest of project.
+12/10: Shawn Mullan called asked if he could come early, 9am.
+12/11: Shawn arrived 10 minutes early and completed disconnect in 1 hour. Started to discuss rest of project and he said I should talk to his father-in-law Bob, furnace expert. Sent drawings and rfp.
+12/15: Had not heard anything. Called to see if interested. Agreed on site visit on Wed 12/16 around 4pm. Need to deal with drain in foundation.</t>
+  </si>
+  <si>
+    <t>12/5: Called late, no answer. Sent email describing project and including plans. Invited for a visit and to submit a bid.
+12/7: Dave Glick (owner) responded. Offered to come Monday 2-4pm or Tuesday 7-8am. I accepted Monday 2pm.
+12/8: Dave confirmed. He will call with 30 min ETA.
+12/14: Site visit went well. Suggested keep the stack outside to the existing (to be moved) drain. Same with drain for utility sink. Also suggested to keep heating system simple. Will send estimate by the end of the week. Does not believe can do the work before the new year.</t>
   </si>
 </sst>
 </file>
@@ -741,7 +753,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -757,12 +769,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,7 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -831,9 +837,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1626,13 +1629,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,7 +1734,7 @@
       <c r="F3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>122</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -1786,7 +1789,7 @@
       <c r="F5" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>123</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -1821,33 +1824,33 @@
     </row>
     <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="I7" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>153</v>
@@ -1859,118 +1862,116 @@
         <v>155</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="G9" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>119</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H10" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="H11" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>203</v>
-      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>206</v>
+        <v>211</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>213</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>101</v>
@@ -1978,116 +1979,137 @@
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:10" ht="270" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="C15" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="F15" s="5" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>165</v>
-      </c>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>168</v>
-      </c>
+      <c r="E16" s="7"/>
       <c r="F16" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="G16" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>187</v>
       </c>
+      <c r="H16" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="I16" s="5" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2098,11 +2120,11 @@
     <hyperlink ref="E4" r:id="rId3"/>
     <hyperlink ref="E5" r:id="rId4"/>
     <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E17" r:id="rId6"/>
-    <hyperlink ref="E14" r:id="rId7" display="merrickbes@gmail.com"/>
+    <hyperlink ref="E18" r:id="rId6"/>
+    <hyperlink ref="E15" r:id="rId7" display="merrickbes@gmail.com"/>
     <hyperlink ref="E8" r:id="rId8"/>
     <hyperlink ref="E7" r:id="rId9"/>
-    <hyperlink ref="E16" r:id="rId10"/>
+    <hyperlink ref="E17" r:id="rId10"/>
     <hyperlink ref="E9" r:id="rId11"/>
     <hyperlink ref="E11" r:id="rId12" display="sales@rbincorporated.com"/>
   </hyperlinks>
